--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(T)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(T).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(T)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(T).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,36 +525,245 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tab
-Tabernanthe
-Tabernanthe iboga - « Iboga »
-Tac
-Tachigali
-Tag
-Tagetes - fam. Astéracées
+          <t>Tab</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tabernanthe
+Tabernanthe iboga - « Iboga »</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tac</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tachigali</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tagetes - fam. Astéracées
 Tagetes erecta - Rose d'Inde ou « Tagète à grandes fleurs »
-Tagetes patula - Œillet d'Inde
-Tam
-Tamarindus
+Tagetes patula - Œillet d'Inde</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tam</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tamarindus
 Tamarindus indica - Tamarinier Indien
 Tamarix - fam. Tamaricacées
 Tamarix gallica - Tamaris de France
 Tamarix ramosissima - Tamaris d'été
-Tamarix parviflora - Tamaris à petites fleurs
-Tan
-Tanacetum - fam. Astéracées
+Tamarix parviflora - Tamaris à petites fleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tanacetum - fam. Astéracées
 Tanacetum balsamita - Tanaisie balsamite ou « Menthe-coq »
 Tanacetum parthenium - Partenelle ou « Grande camomille »
-Tanacetum vulgare - Tanaisie commune
-Tar
-Taralea
+Tanacetum vulgare - Tanaisie commune</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Taralea
 Taraxacum (Pissenlits) - fam. Asteraceae
 Taraxacum ambigens
 Taraxacum ceratophorum
 Taraxacum latilobum
-Taraxacum officinale ou Taraxacum dens-leonis voir Taraxacum section Ruderalia
-Tax
-Taxus - fam. Taxacées
+Taraxacum officinale ou Taraxacum dens-leonis voir Taraxacum section Ruderalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ta</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taxus - fam. Taxacées
 Taxus baccata If d'Europe
 Taxus chinensis
 Taxus cuspidata - If du Japon
@@ -552,47 +773,188 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Te</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tec
-Tecoma
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tec</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tecoma
 Tecoma pentaphylla - Poirier des Antilles
 Tecomaria
-Tecomaria capensis
-Tep
-Tephrosia
-Ter
-Teramnus
-Tet
-Tetragonolobus - fam. Fabacées
+Tecomaria capensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Te</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tep</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tephrosia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Te</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Teramnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Te</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tet</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tetragonolobus - fam. Fabacées
 Tetragonolobus maritimus voir lotus maritimus
-Tetragonolobus purpureus voir lotus tetragonolobus
-Teu
-Teucrium - fam. Lamiacées
+Tetragonolobus purpureus voir lotus tetragonolobus</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Te</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Teu</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teucrium - fam. Lamiacées
 Teucrium botrys - Germandrée Botryde
 Teucrium brachyandrum - Germandrée à étamines courtes
 Teucrium brevifolia - Germandrée à feuilles courtes
@@ -606,34 +968,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Th</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tha
-Thalictrum
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tha</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Thalictrum
 Thalictrum dioicum
 Thalictrum morisonii - Pigamon de Méditerranée
 Thalictrum tuberosum - Pigamon tubéreux
@@ -652,9 +1019,43 @@
 Thamnocalamus spathaceus
 Thamnocalamus tessellatus
 Thapsia
-Thapsia garganica - Thapsie faux fenouil
-The
-Thea'' = ''Camellia
+Thapsia garganica - Thapsie faux fenouil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Thea'' = ''Camellia
 Thelocactus (Cactus)
 Thelypteris
 Thelypteris simulata
@@ -662,28 +1063,164 @@
 Theobroma cacao - Cacaoyer
 Thevetia - fam. Apocynacées
 Thevetia nereifolia - « Laurier jaune » ou « Noix de serpent »
-Thevetia peruviana - « Laurier jaune »
-Thl
-Thlaspi - fam. Brassicacées
+Thevetia peruviana - « Laurier jaune »</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Thl</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Thlaspi - fam. Brassicacées
 Thlaspi alliaceum - Tabouret à odeur d'ail
 Thlaspi arvense - Tabouret des champs
 Thlaspi bursa pastoris ou Capsella bursa pastori - « Capselle » ou « Bourse à Pasteur »
 Thlaspi caerulescens - Tabouret alpestre
 Thlaspi montanum - Tabouret des montagnes
-Thlaspi perfoliata - Tabouret perfolié
-Tho
-Thorella
-Thorella verticillatinundata - Faux cresson de Thore
-Thu
-Thuja
+Thlaspi perfoliata - Tabouret perfolié</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tho</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Thorella
+Thorella verticillatinundata - Faux cresson de Thore</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Thuja
 Thuja standishii -
 Thuja sutchuenensis -
 Thujopsis
 Thujopsis dolabrata -
 Thunbergia
-Thunbergia alata - Œil de Suzanne
-Thy
-Thylacanthus
+Thunbergia alata - Œil de Suzanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Thy</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thylacanthus
 Thymelaea
 Thymelaea hirsuta - Passerine hérissée, Passerine hirsute
 Thymus - fam. Lamiacées
@@ -693,34 +1230,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Ti</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Til
-Tilia - fam. Tiliacées
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Til</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tilia - fam. Tiliacées
 Tilia cordata - Tilleul à petites feuilles
 Tilia euchlora -	Tilleul d'Amérique
 Tilia × europaea - Tilleul d'Europe
@@ -728,41 +1270,80 @@
 Tilia mongolica - Tilleul de Mongolie
 Tilia platyphyllos - Tilleul à larges feuilles
 Tilia sylvestris - Tilleul sylvestre
-Tilia tomentosa - Tilleul cotoneux
-Tip
-Tipuana
+Tilia tomentosa - Tilleul cotoneux</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipuana
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tor
-Tordylia
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tor</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tordylia
 Tordylia apulum - Tordylie
 Torilis
 Torilis nodosa - Torilis noueux
@@ -776,34 +1357,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Tr</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tra
-Trachelium
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tra</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Trachelium
 Trachelium caeruleum - Trachélium
 Trachelospermum
 Trachycarpus - fam. Arécacées
@@ -829,9 +1415,43 @@
 Tragopogon porrifolius - Salsifis ou « Tragopogon à feuilles de poireau »
 Tragopogon pratensis - Salsifis des prés
 Trapa - fam. Trapacées
-Trapa natans - Châtaigne d'eau
-Tri
-Triadenum
+Trapa natans - Châtaigne d'eau</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tr</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tri</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Triadenum
 Triadenum virginicum
 Tribulus  - fam. Zygophyllacées
 Tribulus terrestris - Tribule terrestre « Croix de Malte » ou « Mâcre »
@@ -884,9 +1504,43 @@
 Triticum monococcum - Engrain
 Triticum repens - « Chiendent rampant »
 Triticum sativum - Blé cultivé
-Triticum vulgare - Blé vulgaire
-Tro
-Trollius - fam. Renonculacées
+Triticum vulgare - Blé vulgaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tr</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tro</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trollius - fam. Renonculacées
 Trollius europaus - Trolle d'Europe ou « Boule d'or »
 Tropaeolum - fam. Tropaéolacées
 Tropaeolum majus - Grande capucine
@@ -896,34 +1550,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsu
-Tsuga
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tsu</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsuga
 Tsuga chinensis
 Tsuga diversifolia
 Tsuga dumosa
@@ -933,78 +1592,190 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Tu</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tub
-Tuberaria - fam. Cistacées
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tub</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tuberaria - fam. Cistacées
 Tuberaria guttata - Tubéraire à gouttes, Hélianthème à gouttes
-Tuberaria lignosa - Tubéraire ligneuse
-Tul
-Tulipa - fam. Liliacées
-Tulipa sylvestris - Tulipe sauvage
-Tur
-Turnera
-Turnera aphrodisiaca - « Damiana »
-Tus
-Tussilago - fam. Astéracées
+Tuberaria lignosa - Tubéraire ligneuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tul</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tulipa - fam. Liliacées
+Tulipa sylvestris - Tulipe sauvage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Turnera
+Turnera aphrodisiaca - « Damiana »</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tus</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tussilago - fam. Astéracées
 Tussilago farfara - Tussilage pas d'âne ou « Tussilage farfara »
 Tussilago fragrans ou Petasites fragrans ou Heliotropium fragans - « Héliotrope d'hiver »
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(T)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Ty</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typ
-Typha - fam. Typhacées
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Typ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typha - fam. Typhacées
 Typha laxmannii - Massette de Laxman
 Voir aussi Plantes par nom scientifique.
  Portail de l’écologie   Portail de la botanique                    </t>
